--- a/medicine/Mort/Nécropole_nationale_des_Buttes_(Marcelcave)/Nécropole_nationale_des_Buttes_(Marcelcave).xlsx
+++ b/medicine/Mort/Nécropole_nationale_des_Buttes_(Marcelcave)/Nécropole_nationale_des_Buttes_(Marcelcave).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_des_Buttes_(Marcelcave)</t>
+          <t>Nécropole_nationale_des_Buttes_(Marcelcave)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La nécropole nationale des Buttes est un cimetière militaire français de la Première Guerre mondiale situé sur le territoire de la commune de Marcelcave, dans le département de la Somme, à l'est d'Amiens.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_des_Buttes_(Marcelcave)</t>
+          <t>Nécropole_nationale_des_Buttes_(Marcelcave)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La nécropole nationale des Buttes est située sur le plateau du Santerre, au sud de la route départementale 929.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_des_Buttes_(Marcelcave)</t>
+          <t>Nécropole_nationale_des_Buttes_(Marcelcave)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pendant la Grande Guerre, l'armée française avait installé à Marcelcave, situé sur la voie ferrée Amiens-Tergnier, à l'arrière du front, un important complexe d'approvisionnement militaire : dépôt de vivres, munitions, matériels etc. Un important hôpital militaire y fut également créé. L'ensemble fonctionna de 1914 à mars 1918, lorsque les Allemands lancèrent l'Offensive du Printemps[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendant la Grande Guerre, l'armée française avait installé à Marcelcave, situé sur la voie ferrée Amiens-Tergnier, à l'arrière du front, un important complexe d'approvisionnement militaire : dépôt de vivres, munitions, matériels etc. Un important hôpital militaire y fut également créé. L'ensemble fonctionna de 1914 à mars 1918, lorsque les Allemands lancèrent l'Offensive du Printemps. 
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_des_Buttes_(Marcelcave)</t>
+          <t>Nécropole_nationale_des_Buttes_(Marcelcave)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'une superficie de 1,17 ha, la nécropole rassemble 1 610 tombes individuelles de soldats morts des suites de leurs blessures ou de maladie [2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'une superficie de 1,17 ha, la nécropole rassemble 1 610 tombes individuelles de soldats morts des suites de leurs blessures ou de maladie .
 </t>
         </is>
       </c>
